--- a/V2/electronics/main/main.xlsx
+++ b/V2/electronics/main/main.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexl\projects\Glassphones\V2\electronics\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2EDD7499-4037-4B75-A208-180CCEE53173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090786FF-AFD2-46B9-B9EC-59C71BDABA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="600" windowWidth="14415" windowHeight="15600"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="142">
   <si>
     <t>Id</t>
   </si>
@@ -101,30 +101,6 @@
     <t>https://www.digikey.co.uk/en/products/detail/kemet/C0402C105K9PAC7800/1090778</t>
   </si>
   <si>
-    <t>TP71</t>
-  </si>
-  <si>
-    <t>TestPoint_Pad_D1.0mm</t>
-  </si>
-  <si>
-    <t>3.3V</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>TP32</t>
-  </si>
-  <si>
-    <t>BM83_LED2</t>
-  </si>
-  <si>
-    <t>TP30</t>
-  </si>
-  <si>
-    <t>BM83_MFB</t>
-  </si>
-  <si>
     <t>C80_x000D_
 C85_x000D_
 C84_x000D_
@@ -135,12 +111,6 @@
   </si>
   <si>
     <t>https://www.digikey.co.uk/en/products/detail/kemet/C0402C103K4RAC7411/12701226</t>
-  </si>
-  <si>
-    <t>TP33</t>
-  </si>
-  <si>
-    <t>BM83_USB_DN</t>
   </si>
   <si>
     <t>J5</t>
@@ -184,18 +154,6 @@
     <t>https://www.digikey.co.uk/en/products/detail/samsung-electro-mechanics/CL05A106MP5NUNC/3887108</t>
   </si>
   <si>
-    <t>TP34</t>
-  </si>
-  <si>
-    <t>BM83_USB_DP</t>
-  </si>
-  <si>
-    <t>TP70</t>
-  </si>
-  <si>
-    <t>5V VBUS</t>
-  </si>
-  <si>
     <t>J11</t>
   </si>
   <si>
@@ -270,12 +228,6 @@
     <t>https://www.digikey.co.uk/en/products/detail/stackpole-electronics-inc/RMCF0402FT100R/1761807</t>
   </si>
   <si>
-    <t>TP31</t>
-  </si>
-  <si>
-    <t>BM83_LED1</t>
-  </si>
-  <si>
     <t>U8</t>
   </si>
   <si>
@@ -334,12 +286,6 @@
   </si>
   <si>
     <t>XTAL3215</t>
-  </si>
-  <si>
-    <t>TP73</t>
-  </si>
-  <si>
-    <t>GND</t>
   </si>
   <si>
     <t>C40
@@ -388,12 +334,6 @@
   </si>
   <si>
     <t>RED</t>
-  </si>
-  <si>
-    <t>TP72</t>
-  </si>
-  <si>
-    <t>1.8V</t>
   </si>
   <si>
     <t>J81</t>
@@ -567,12 +507,21 @@
   <si>
     <t>TH50</t>
   </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>mouser</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +656,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1005,7 +962,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1048,14 +1005,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1089,6 +1048,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1099,7 +1059,29 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1408,16 +1390,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1439,8 +1426,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1462,8 +1452,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1485,36 +1478,45 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1523,207 +1525,243 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1732,365 +1770,419 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>32.768000000000001</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
-        <v>77</v>
+      <c r="E25">
+        <v>0.33</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
         <v>84</v>
       </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>32.768000000000001</v>
-      </c>
-      <c r="F28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -2099,463 +2191,324 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="H32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>99</v>
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>44</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0.33</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" t="s">
-        <v>114</v>
-      </c>
       <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>470</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="H40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" t="s">
         <v>10</v>
       </c>
-      <c r="G41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>43</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>44</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" t="s">
         <v>10</v>
       </c>
-      <c r="G45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="G44" t="s">
         <v>136</v>
       </c>
-      <c r="C46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>470</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>147</v>
-      </c>
-      <c r="F50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>157</v>
-      </c>
-      <c r="F53" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" t="s">
-        <v>156</v>
+      <c r="H44" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G17" r:id="rId1" xr:uid="{68F3CE73-8A3E-4B7C-BF55-4C55D1ACC3AA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>